--- a/Combined_datasets/7 OM Dataset/Refined/Results/ Exp 8 Jan23 - Regular Dataset  - Tokenization 3 .xlsx
+++ b/Combined_datasets/7 OM Dataset/Refined/Results/ Exp 8 Jan23 - Regular Dataset  - Tokenization 3 .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rashedhasan/Desktop/UNL/Research/Object relational mapping/Step 5 - Abstraction/OM-Solution_Mapping/OM-ML_Research/Combined_datasets/7 OM Dataset/Refined/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45BF75D-9315-F642-A640-202604A92D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76547EB0-7121-BC4B-9D5D-6C8F1259E4DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4820" yWindow="1460" windowWidth="27240" windowHeight="15400" xr2:uid="{2CE11C35-6353-D34A-BC2C-8ADC3AEC3A0E}"/>
   </bookViews>
@@ -724,8 +724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23E7389C-7B57-9042-BBA8-F5B59DB8B8DD}">
   <dimension ref="A1:B102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56:A102"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
